--- a/data/raw/election/voters-age-sex-education/2023/Eskişehir.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Eskişehir.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="43">
   <si>
     <t>Eskişehir</t>
   </si>
@@ -142,6 +143,12 @@
   </si>
   <si>
     <t>Tepebaşı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -675,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -694,6 +701,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,10 +1039,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N368"/>
+  <dimension ref="A1:N370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K213" sqref="K213"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="K188" sqref="K188:K212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,52 +1057,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2092,17 +2108,17 @@
       <c r="D30" s="5">
         <v>282</v>
       </c>
-      <c r="E30" s="5">
-        <v>3.36</v>
+      <c r="E30" s="7">
+        <v>3360</v>
       </c>
       <c r="F30" s="5">
         <v>751</v>
       </c>
-      <c r="G30" s="5">
-        <v>1.234</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1.627</v>
+      <c r="G30" s="7">
+        <v>1234</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1627</v>
       </c>
       <c r="I30" s="5">
         <v>620</v>
@@ -2116,15 +2132,15 @@
       <c r="L30" s="5">
         <v>43</v>
       </c>
-      <c r="M30" s="5">
-        <v>8.3629999999999995</v>
+      <c r="M30" s="7">
+        <v>8363</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3130,8 +3146,8 @@
       <c r="D56" s="5">
         <v>178</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.7929999999999999</v>
+      <c r="E56" s="7">
+        <v>1793</v>
       </c>
       <c r="F56" s="5">
         <v>483</v>
@@ -3139,8 +3155,8 @@
       <c r="G56" s="5">
         <v>625</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.135</v>
+      <c r="H56" s="7">
+        <v>1135</v>
       </c>
       <c r="I56" s="5">
         <v>453</v>
@@ -3154,15 +3170,15 @@
       <c r="L56" s="5">
         <v>25</v>
       </c>
-      <c r="M56" s="5">
-        <v>4.8819999999999997</v>
+      <c r="M56" s="7">
+        <v>4882</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -4168,20 +4184,20 @@
       <c r="D82" s="5">
         <v>335</v>
       </c>
-      <c r="E82" s="5">
-        <v>3.2389999999999999</v>
+      <c r="E82" s="7">
+        <v>3239</v>
       </c>
       <c r="F82" s="5">
         <v>962</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.492</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.1779999999999999</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.2949999999999999</v>
+      <c r="G82" s="7">
+        <v>1492</v>
+      </c>
+      <c r="H82" s="7">
+        <v>3178</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1295</v>
       </c>
       <c r="J82" s="5">
         <v>99</v>
@@ -4192,15 +4208,15 @@
       <c r="L82" s="5">
         <v>455</v>
       </c>
-      <c r="M82" s="5">
-        <v>11.442</v>
+      <c r="M82" s="7">
+        <v>11442</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -5206,8 +5222,8 @@
       <c r="D108" s="5">
         <v>138</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.9650000000000001</v>
+      <c r="E108" s="7">
+        <v>1965</v>
       </c>
       <c r="F108" s="5">
         <v>357</v>
@@ -5230,15 +5246,15 @@
       <c r="L108" s="5">
         <v>21</v>
       </c>
-      <c r="M108" s="5">
-        <v>4.4459999999999997</v>
+      <c r="M108" s="7">
+        <v>4446</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -6268,15 +6284,15 @@
       <c r="L134" s="5">
         <v>18</v>
       </c>
-      <c r="M134" s="5">
-        <v>1.837</v>
+      <c r="M134" s="7">
+        <v>1837</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -7282,8 +7298,8 @@
       <c r="D160" s="5">
         <v>178</v>
       </c>
-      <c r="E160" s="5">
-        <v>1.806</v>
+      <c r="E160" s="7">
+        <v>1806</v>
       </c>
       <c r="F160" s="5">
         <v>370</v>
@@ -7291,8 +7307,8 @@
       <c r="G160" s="5">
         <v>704</v>
       </c>
-      <c r="H160" s="5">
-        <v>1.4590000000000001</v>
+      <c r="H160" s="7">
+        <v>1459</v>
       </c>
       <c r="I160" s="5">
         <v>526</v>
@@ -7306,15 +7322,15 @@
       <c r="L160" s="5">
         <v>32</v>
       </c>
-      <c r="M160" s="5">
-        <v>5.23</v>
+      <c r="M160" s="7">
+        <v>5230</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -8320,8 +8336,8 @@
       <c r="D186" s="5">
         <v>247</v>
       </c>
-      <c r="E186" s="5">
-        <v>1.76</v>
+      <c r="E186" s="7">
+        <v>1760</v>
       </c>
       <c r="F186" s="5">
         <v>409</v>
@@ -8329,8 +8345,8 @@
       <c r="G186" s="5">
         <v>903</v>
       </c>
-      <c r="H186" s="5">
-        <v>1.5680000000000001</v>
+      <c r="H186" s="7">
+        <v>1568</v>
       </c>
       <c r="I186" s="5">
         <v>644</v>
@@ -8344,15 +8360,15 @@
       <c r="L186" s="5">
         <v>92</v>
       </c>
-      <c r="M186" s="5">
-        <v>5.8609999999999998</v>
+      <c r="M186" s="7">
+        <v>5861</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8377,7 +8393,7 @@
       <c r="J187" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L187" s="2" t="s">
@@ -8418,8 +8434,8 @@
       <c r="J188" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K188" s="4" t="s">
-        <v>15</v>
+      <c r="K188" s="4">
+        <v>0</v>
       </c>
       <c r="L188" s="4" t="s">
         <v>15</v>
@@ -8457,8 +8473,8 @@
       <c r="J189" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K189" s="4" t="s">
-        <v>15</v>
+      <c r="K189" s="4">
+        <v>0</v>
       </c>
       <c r="L189" s="4" t="s">
         <v>15</v>
@@ -8498,8 +8514,8 @@
       <c r="J190" s="4">
         <v>2</v>
       </c>
-      <c r="K190" s="4" t="s">
-        <v>15</v>
+      <c r="K190" s="4">
+        <v>0</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>15</v>
@@ -8537,8 +8553,8 @@
       <c r="J191" s="4">
         <v>3</v>
       </c>
-      <c r="K191" s="4" t="s">
-        <v>15</v>
+      <c r="K191" s="4">
+        <v>0</v>
       </c>
       <c r="L191" s="4" t="s">
         <v>15</v>
@@ -8578,8 +8594,8 @@
       <c r="J192" s="4">
         <v>2</v>
       </c>
-      <c r="K192" s="4" t="s">
-        <v>15</v>
+      <c r="K192" s="4">
+        <v>0</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>15</v>
@@ -8617,8 +8633,8 @@
       <c r="J193" s="4">
         <v>2</v>
       </c>
-      <c r="K193" s="4" t="s">
-        <v>15</v>
+      <c r="K193" s="4">
+        <v>0</v>
       </c>
       <c r="L193" s="4" t="s">
         <v>15</v>
@@ -8658,8 +8674,8 @@
       <c r="J194" s="4">
         <v>2</v>
       </c>
-      <c r="K194" s="4" t="s">
-        <v>15</v>
+      <c r="K194" s="4">
+        <v>0</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>15</v>
@@ -8697,8 +8713,8 @@
       <c r="J195" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K195" s="4" t="s">
-        <v>15</v>
+      <c r="K195" s="4">
+        <v>0</v>
       </c>
       <c r="L195" s="4" t="s">
         <v>15</v>
@@ -8738,8 +8754,8 @@
       <c r="J196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K196" s="4" t="s">
-        <v>15</v>
+      <c r="K196" s="4">
+        <v>0</v>
       </c>
       <c r="L196" s="4" t="s">
         <v>15</v>
@@ -8777,8 +8793,8 @@
       <c r="J197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K197" s="4" t="s">
-        <v>15</v>
+      <c r="K197" s="4">
+        <v>0</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>15</v>
@@ -8818,8 +8834,8 @@
       <c r="J198" s="4">
         <v>1</v>
       </c>
-      <c r="K198" s="4" t="s">
-        <v>15</v>
+      <c r="K198" s="4">
+        <v>0</v>
       </c>
       <c r="L198" s="4" t="s">
         <v>15</v>
@@ -8857,8 +8873,8 @@
       <c r="J199" s="4">
         <v>1</v>
       </c>
-      <c r="K199" s="4" t="s">
-        <v>15</v>
+      <c r="K199" s="4">
+        <v>0</v>
       </c>
       <c r="L199" s="4" t="s">
         <v>15</v>
@@ -8898,8 +8914,8 @@
       <c r="J200" s="4">
         <v>3</v>
       </c>
-      <c r="K200" s="4" t="s">
-        <v>15</v>
+      <c r="K200" s="4">
+        <v>0</v>
       </c>
       <c r="L200" s="4" t="s">
         <v>15</v>
@@ -8937,8 +8953,8 @@
       <c r="J201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K201" s="4" t="s">
-        <v>15</v>
+      <c r="K201" s="4">
+        <v>0</v>
       </c>
       <c r="L201" s="4">
         <v>1</v>
@@ -8978,8 +8994,8 @@
       <c r="J202" s="4">
         <v>1</v>
       </c>
-      <c r="K202" s="4" t="s">
-        <v>15</v>
+      <c r="K202" s="4">
+        <v>0</v>
       </c>
       <c r="L202" s="4">
         <v>1</v>
@@ -9017,8 +9033,8 @@
       <c r="J203" s="4">
         <v>1</v>
       </c>
-      <c r="K203" s="4" t="s">
-        <v>15</v>
+      <c r="K203" s="4">
+        <v>0</v>
       </c>
       <c r="L203" s="4">
         <v>2</v>
@@ -9058,8 +9074,8 @@
       <c r="J204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K204" s="4" t="s">
-        <v>15</v>
+      <c r="K204" s="4">
+        <v>0</v>
       </c>
       <c r="L204" s="4" t="s">
         <v>15</v>
@@ -9097,8 +9113,8 @@
       <c r="J205" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K205" s="4" t="s">
-        <v>15</v>
+      <c r="K205" s="4">
+        <v>0</v>
       </c>
       <c r="L205" s="4">
         <v>2</v>
@@ -9138,8 +9154,8 @@
       <c r="J206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K206" s="4" t="s">
-        <v>15</v>
+      <c r="K206" s="4">
+        <v>0</v>
       </c>
       <c r="L206" s="4" t="s">
         <v>15</v>
@@ -9177,8 +9193,8 @@
       <c r="J207" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K207" s="4" t="s">
-        <v>15</v>
+      <c r="K207" s="4">
+        <v>0</v>
       </c>
       <c r="L207" s="4">
         <v>1</v>
@@ -9218,8 +9234,8 @@
       <c r="J208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K208" s="4" t="s">
-        <v>15</v>
+      <c r="K208" s="4">
+        <v>0</v>
       </c>
       <c r="L208" s="4" t="s">
         <v>15</v>
@@ -9257,8 +9273,8 @@
       <c r="J209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K209" s="4" t="s">
-        <v>15</v>
+      <c r="K209" s="4">
+        <v>0</v>
       </c>
       <c r="L209" s="4">
         <v>1</v>
@@ -9298,8 +9314,8 @@
       <c r="J210" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K210" s="4" t="s">
-        <v>15</v>
+      <c r="K210" s="4">
+        <v>0</v>
       </c>
       <c r="L210" s="4" t="s">
         <v>15</v>
@@ -9337,8 +9353,8 @@
       <c r="J211" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K211" s="4" t="s">
-        <v>15</v>
+      <c r="K211" s="4">
+        <v>0</v>
       </c>
       <c r="L211" s="4">
         <v>2</v>
@@ -9358,8 +9374,8 @@
       <c r="D212" s="5">
         <v>82</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.1679999999999999</v>
+      <c r="E212" s="7">
+        <v>1168</v>
       </c>
       <c r="F212" s="5">
         <v>168</v>
@@ -9376,21 +9392,21 @@
       <c r="J212" s="5">
         <v>18</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="4">
         <v>0</v>
       </c>
       <c r="L212" s="5">
         <v>10</v>
       </c>
-      <c r="M212" s="5">
-        <v>2.5859999999999999</v>
+      <c r="M212" s="7">
+        <v>2586</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -10396,8 +10412,8 @@
       <c r="D238" s="5">
         <v>442</v>
       </c>
-      <c r="E238" s="5">
-        <v>2.726</v>
+      <c r="E238" s="7">
+        <v>2726</v>
       </c>
       <c r="F238" s="5">
         <v>517</v>
@@ -10405,8 +10421,8 @@
       <c r="G238" s="5">
         <v>927</v>
       </c>
-      <c r="H238" s="5">
-        <v>1.35</v>
+      <c r="H238" s="7">
+        <v>1350</v>
       </c>
       <c r="I238" s="5">
         <v>579</v>
@@ -10420,15 +10436,15 @@
       <c r="L238" s="5">
         <v>41</v>
       </c>
-      <c r="M238" s="5">
-        <v>6.8040000000000003</v>
+      <c r="M238" s="7">
+        <v>6804</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10482,14 +10498,14 @@
       <c r="F240" s="4">
         <v>4</v>
       </c>
-      <c r="G240" s="4">
-        <v>2.9140000000000001</v>
-      </c>
-      <c r="H240" s="4">
-        <v>13.747</v>
-      </c>
-      <c r="I240" s="4">
-        <v>2.3199999999999998</v>
+      <c r="G240" s="8">
+        <v>2914</v>
+      </c>
+      <c r="H240" s="8">
+        <v>13747</v>
+      </c>
+      <c r="I240" s="8">
+        <v>2320</v>
       </c>
       <c r="J240" s="4">
         <v>56</v>
@@ -10500,8 +10516,8 @@
       <c r="L240" s="4">
         <v>178</v>
       </c>
-      <c r="M240" s="5">
-        <v>19.337</v>
+      <c r="M240" s="7">
+        <v>19337</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10521,14 +10537,14 @@
       <c r="F241" s="4">
         <v>1</v>
       </c>
-      <c r="G241" s="4">
-        <v>2.4039999999999999</v>
-      </c>
-      <c r="H241" s="4">
-        <v>12.615</v>
-      </c>
-      <c r="I241" s="4">
-        <v>3.8940000000000001</v>
+      <c r="G241" s="8">
+        <v>2404</v>
+      </c>
+      <c r="H241" s="8">
+        <v>12615</v>
+      </c>
+      <c r="I241" s="8">
+        <v>3894</v>
       </c>
       <c r="J241" s="4">
         <v>66</v>
@@ -10539,8 +10555,8 @@
       <c r="L241" s="4">
         <v>124</v>
       </c>
-      <c r="M241" s="5">
-        <v>19.257000000000001</v>
+      <c r="M241" s="7">
+        <v>19257</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10562,14 +10578,14 @@
       <c r="F242" s="4">
         <v>57</v>
       </c>
-      <c r="G242" s="4">
-        <v>1.776</v>
-      </c>
-      <c r="H242" s="4">
-        <v>6.0860000000000003</v>
-      </c>
-      <c r="I242" s="4">
-        <v>5.806</v>
+      <c r="G242" s="8">
+        <v>1776</v>
+      </c>
+      <c r="H242" s="8">
+        <v>6086</v>
+      </c>
+      <c r="I242" s="8">
+        <v>5806</v>
       </c>
       <c r="J242" s="4">
         <v>601</v>
@@ -10580,8 +10596,8 @@
       <c r="L242" s="4">
         <v>125</v>
       </c>
-      <c r="M242" s="5">
-        <v>14.56</v>
+      <c r="M242" s="7">
+        <v>14560</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10601,14 +10617,14 @@
       <c r="F243" s="4">
         <v>77</v>
       </c>
-      <c r="G243" s="4">
-        <v>1.718</v>
-      </c>
-      <c r="H243" s="4">
-        <v>3.6669999999999998</v>
-      </c>
-      <c r="I243" s="4">
-        <v>7.3150000000000004</v>
+      <c r="G243" s="8">
+        <v>1718</v>
+      </c>
+      <c r="H243" s="8">
+        <v>3667</v>
+      </c>
+      <c r="I243" s="8">
+        <v>7315</v>
       </c>
       <c r="J243" s="4">
         <v>878</v>
@@ -10619,8 +10635,8 @@
       <c r="L243" s="4">
         <v>122</v>
       </c>
-      <c r="M243" s="5">
-        <v>14.064</v>
+      <c r="M243" s="7">
+        <v>14064</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10645,11 +10661,11 @@
       <c r="G244" s="4">
         <v>898</v>
       </c>
-      <c r="H244" s="4">
-        <v>5.2519999999999998</v>
-      </c>
-      <c r="I244" s="4">
-        <v>5.9349999999999996</v>
+      <c r="H244" s="8">
+        <v>5252</v>
+      </c>
+      <c r="I244" s="8">
+        <v>5935</v>
       </c>
       <c r="J244" s="4">
         <v>798</v>
@@ -10660,8 +10676,8 @@
       <c r="L244" s="4">
         <v>130</v>
       </c>
-      <c r="M244" s="5">
-        <v>14.122</v>
+      <c r="M244" s="7">
+        <v>14122</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10678,20 +10694,20 @@
       <c r="E245" s="4">
         <v>138</v>
       </c>
-      <c r="F245" s="4">
-        <v>1.409</v>
+      <c r="F245" s="8">
+        <v>1409</v>
       </c>
       <c r="G245" s="4">
         <v>856</v>
       </c>
-      <c r="H245" s="4">
-        <v>3.91</v>
-      </c>
-      <c r="I245" s="4">
-        <v>6.5780000000000003</v>
-      </c>
-      <c r="J245" s="4">
-        <v>1.0660000000000001</v>
+      <c r="H245" s="8">
+        <v>3910</v>
+      </c>
+      <c r="I245" s="8">
+        <v>6578</v>
+      </c>
+      <c r="J245" s="8">
+        <v>1066</v>
       </c>
       <c r="K245" s="4">
         <v>62</v>
@@ -10699,8 +10715,8 @@
       <c r="L245" s="4">
         <v>164</v>
       </c>
-      <c r="M245" s="5">
-        <v>14.379</v>
+      <c r="M245" s="7">
+        <v>14379</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10719,17 +10735,17 @@
       <c r="E246" s="4">
         <v>338</v>
       </c>
-      <c r="F246" s="4">
-        <v>1.22</v>
+      <c r="F246" s="8">
+        <v>1220</v>
       </c>
       <c r="G246" s="4">
         <v>809</v>
       </c>
-      <c r="H246" s="4">
-        <v>5.8570000000000002</v>
-      </c>
-      <c r="I246" s="4">
-        <v>5.3929999999999998</v>
+      <c r="H246" s="8">
+        <v>5857</v>
+      </c>
+      <c r="I246" s="8">
+        <v>5393</v>
       </c>
       <c r="J246" s="4">
         <v>940</v>
@@ -10740,8 +10756,8 @@
       <c r="L246" s="4">
         <v>150</v>
       </c>
-      <c r="M246" s="5">
-        <v>14.938000000000001</v>
+      <c r="M246" s="7">
+        <v>14938</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10755,23 +10771,23 @@
       <c r="D247" s="4">
         <v>95</v>
       </c>
-      <c r="E247" s="4">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="F247" s="4">
-        <v>1.399</v>
-      </c>
-      <c r="G247" s="4">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="H247" s="4">
-        <v>4.7770000000000001</v>
-      </c>
-      <c r="I247" s="4">
-        <v>5.4130000000000003</v>
-      </c>
-      <c r="J247" s="4">
-        <v>1.0209999999999999</v>
+      <c r="E247" s="8">
+        <v>1422</v>
+      </c>
+      <c r="F247" s="8">
+        <v>1399</v>
+      </c>
+      <c r="G247" s="8">
+        <v>1118</v>
+      </c>
+      <c r="H247" s="8">
+        <v>4777</v>
+      </c>
+      <c r="I247" s="8">
+        <v>5413</v>
+      </c>
+      <c r="J247" s="8">
+        <v>1021</v>
       </c>
       <c r="K247" s="4">
         <v>208</v>
@@ -10779,8 +10795,8 @@
       <c r="L247" s="4">
         <v>153</v>
       </c>
-      <c r="M247" s="5">
-        <v>15.676</v>
+      <c r="M247" s="7">
+        <v>15676</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10799,17 +10815,17 @@
       <c r="E248" s="4">
         <v>708</v>
       </c>
-      <c r="F248" s="4">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G248" s="4">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="H248" s="4">
-        <v>6.5540000000000003</v>
-      </c>
-      <c r="I248" s="4">
-        <v>4.6740000000000004</v>
+      <c r="F248" s="8">
+        <v>1239</v>
+      </c>
+      <c r="G248" s="8">
+        <v>1719</v>
+      </c>
+      <c r="H248" s="8">
+        <v>6554</v>
+      </c>
+      <c r="I248" s="8">
+        <v>4674</v>
       </c>
       <c r="J248" s="4">
         <v>868</v>
@@ -10820,8 +10836,8 @@
       <c r="L248" s="4">
         <v>204</v>
       </c>
-      <c r="M248" s="5">
-        <v>16.204000000000001</v>
+      <c r="M248" s="7">
+        <v>16204</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10835,20 +10851,20 @@
       <c r="D249" s="4">
         <v>94</v>
       </c>
-      <c r="E249" s="4">
-        <v>2.3980000000000001</v>
-      </c>
-      <c r="F249" s="4">
-        <v>1.54</v>
-      </c>
-      <c r="G249" s="4">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="H249" s="4">
-        <v>5.1029999999999998</v>
-      </c>
-      <c r="I249" s="4">
-        <v>4.7220000000000004</v>
+      <c r="E249" s="8">
+        <v>2398</v>
+      </c>
+      <c r="F249" s="8">
+        <v>1540</v>
+      </c>
+      <c r="G249" s="8">
+        <v>2212</v>
+      </c>
+      <c r="H249" s="8">
+        <v>5103</v>
+      </c>
+      <c r="I249" s="8">
+        <v>4722</v>
       </c>
       <c r="J249" s="4">
         <v>937</v>
@@ -10859,8 +10875,8 @@
       <c r="L249" s="4">
         <v>169</v>
       </c>
-      <c r="M249" s="5">
-        <v>17.434000000000001</v>
+      <c r="M249" s="7">
+        <v>17434</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10879,17 +10895,17 @@
       <c r="E250" s="4">
         <v>883</v>
       </c>
-      <c r="F250" s="4">
-        <v>1.548</v>
-      </c>
-      <c r="G250" s="4">
-        <v>1.8879999999999999</v>
-      </c>
-      <c r="H250" s="4">
-        <v>5.38</v>
-      </c>
-      <c r="I250" s="4">
-        <v>4.1719999999999997</v>
+      <c r="F250" s="8">
+        <v>1548</v>
+      </c>
+      <c r="G250" s="8">
+        <v>1888</v>
+      </c>
+      <c r="H250" s="8">
+        <v>5380</v>
+      </c>
+      <c r="I250" s="8">
+        <v>4172</v>
       </c>
       <c r="J250" s="4">
         <v>672</v>
@@ -10900,8 +10916,8 @@
       <c r="L250" s="4">
         <v>157</v>
       </c>
-      <c r="M250" s="5">
-        <v>14.93</v>
+      <c r="M250" s="7">
+        <v>14930</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10915,20 +10931,20 @@
       <c r="D251" s="4">
         <v>82</v>
       </c>
-      <c r="E251" s="4">
-        <v>3.0289999999999999</v>
-      </c>
-      <c r="F251" s="4">
-        <v>2.056</v>
-      </c>
-      <c r="G251" s="4">
-        <v>2.1579999999999999</v>
-      </c>
-      <c r="H251" s="4">
-        <v>4.3460000000000001</v>
-      </c>
-      <c r="I251" s="4">
-        <v>3.4620000000000002</v>
+      <c r="E251" s="8">
+        <v>3029</v>
+      </c>
+      <c r="F251" s="8">
+        <v>2056</v>
+      </c>
+      <c r="G251" s="8">
+        <v>2158</v>
+      </c>
+      <c r="H251" s="8">
+        <v>4346</v>
+      </c>
+      <c r="I251" s="8">
+        <v>3462</v>
       </c>
       <c r="J251" s="4">
         <v>516</v>
@@ -10939,8 +10955,8 @@
       <c r="L251" s="4">
         <v>178</v>
       </c>
-      <c r="M251" s="5">
-        <v>16.056000000000001</v>
+      <c r="M251" s="7">
+        <v>16056</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10956,20 +10972,20 @@
       <c r="D252" s="4">
         <v>20</v>
       </c>
-      <c r="E252" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F252" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="G252" s="4">
-        <v>2.1850000000000001</v>
-      </c>
-      <c r="H252" s="4">
-        <v>4.093</v>
-      </c>
-      <c r="I252" s="4">
-        <v>3.3980000000000001</v>
+      <c r="E252" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F252" s="8">
+        <v>1830</v>
+      </c>
+      <c r="G252" s="8">
+        <v>2185</v>
+      </c>
+      <c r="H252" s="8">
+        <v>4093</v>
+      </c>
+      <c r="I252" s="8">
+        <v>3398</v>
       </c>
       <c r="J252" s="4">
         <v>471</v>
@@ -10980,8 +10996,8 @@
       <c r="L252" s="4">
         <v>204</v>
       </c>
-      <c r="M252" s="5">
-        <v>13.484</v>
+      <c r="M252" s="7">
+        <v>13484</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10995,20 +11011,20 @@
       <c r="D253" s="4">
         <v>115</v>
       </c>
-      <c r="E253" s="4">
-        <v>3.8610000000000002</v>
-      </c>
-      <c r="F253" s="4">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="G253" s="4">
-        <v>2.1419999999999999</v>
-      </c>
-      <c r="H253" s="4">
-        <v>3.23</v>
-      </c>
-      <c r="I253" s="4">
-        <v>2.351</v>
+      <c r="E253" s="8">
+        <v>3861</v>
+      </c>
+      <c r="F253" s="8">
+        <v>2010</v>
+      </c>
+      <c r="G253" s="8">
+        <v>2142</v>
+      </c>
+      <c r="H253" s="8">
+        <v>3230</v>
+      </c>
+      <c r="I253" s="8">
+        <v>2351</v>
       </c>
       <c r="J253" s="4">
         <v>350</v>
@@ -11019,8 +11035,8 @@
       <c r="L253" s="4">
         <v>225</v>
       </c>
-      <c r="M253" s="5">
-        <v>14.553000000000001</v>
+      <c r="M253" s="7">
+        <v>14553</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11036,20 +11052,20 @@
       <c r="D254" s="4">
         <v>27</v>
       </c>
-      <c r="E254" s="4">
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="F254" s="4">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="G254" s="4">
-        <v>2.0790000000000002</v>
-      </c>
-      <c r="H254" s="4">
-        <v>3.1720000000000002</v>
-      </c>
-      <c r="I254" s="4">
-        <v>2.6389999999999998</v>
+      <c r="E254" s="8">
+        <v>1634</v>
+      </c>
+      <c r="F254" s="8">
+        <v>1674</v>
+      </c>
+      <c r="G254" s="8">
+        <v>2079</v>
+      </c>
+      <c r="H254" s="8">
+        <v>3172</v>
+      </c>
+      <c r="I254" s="8">
+        <v>2639</v>
       </c>
       <c r="J254" s="4">
         <v>302</v>
@@ -11060,8 +11076,8 @@
       <c r="L254" s="4">
         <v>215</v>
       </c>
-      <c r="M254" s="5">
-        <v>11.9</v>
+      <c r="M254" s="7">
+        <v>11900</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11075,20 +11091,20 @@
       <c r="D255" s="4">
         <v>183</v>
       </c>
-      <c r="E255" s="4">
-        <v>5.0250000000000004</v>
-      </c>
-      <c r="F255" s="4">
-        <v>1.401</v>
-      </c>
-      <c r="G255" s="4">
-        <v>1.635</v>
-      </c>
-      <c r="H255" s="4">
-        <v>2.5920000000000001</v>
-      </c>
-      <c r="I255" s="4">
-        <v>1.6279999999999999</v>
+      <c r="E255" s="8">
+        <v>5025</v>
+      </c>
+      <c r="F255" s="8">
+        <v>1401</v>
+      </c>
+      <c r="G255" s="8">
+        <v>1635</v>
+      </c>
+      <c r="H255" s="8">
+        <v>2592</v>
+      </c>
+      <c r="I255" s="8">
+        <v>1628</v>
       </c>
       <c r="J255" s="4">
         <v>165</v>
@@ -11099,8 +11115,8 @@
       <c r="L255" s="4">
         <v>246</v>
       </c>
-      <c r="M255" s="5">
-        <v>13.124000000000001</v>
+      <c r="M255" s="7">
+        <v>13124</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11116,20 +11132,20 @@
       <c r="D256" s="4">
         <v>51</v>
       </c>
-      <c r="E256" s="4">
-        <v>2.6030000000000002</v>
-      </c>
-      <c r="F256" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="G256" s="4">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="H256" s="4">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="I256" s="4">
-        <v>1.92</v>
+      <c r="E256" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F256" s="8">
+        <v>1010</v>
+      </c>
+      <c r="G256" s="8">
+        <v>1543</v>
+      </c>
+      <c r="H256" s="8">
+        <v>2995</v>
+      </c>
+      <c r="I256" s="8">
+        <v>1920</v>
       </c>
       <c r="J256" s="4">
         <v>184</v>
@@ -11140,8 +11156,8 @@
       <c r="L256" s="4">
         <v>238</v>
       </c>
-      <c r="M256" s="5">
-        <v>10.694000000000001</v>
+      <c r="M256" s="7">
+        <v>10694</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11155,20 +11171,20 @@
       <c r="D257" s="4">
         <v>279</v>
       </c>
-      <c r="E257" s="4">
-        <v>5.9939999999999998</v>
+      <c r="E257" s="8">
+        <v>5994</v>
       </c>
       <c r="F257" s="4">
         <v>637</v>
       </c>
-      <c r="G257" s="4">
-        <v>1.071</v>
-      </c>
-      <c r="H257" s="4">
-        <v>2.1619999999999999</v>
-      </c>
-      <c r="I257" s="4">
-        <v>1.2729999999999999</v>
+      <c r="G257" s="8">
+        <v>1071</v>
+      </c>
+      <c r="H257" s="8">
+        <v>2162</v>
+      </c>
+      <c r="I257" s="8">
+        <v>1273</v>
       </c>
       <c r="J257" s="4">
         <v>95</v>
@@ -11179,8 +11195,8 @@
       <c r="L257" s="4">
         <v>258</v>
       </c>
-      <c r="M257" s="5">
-        <v>12.061</v>
+      <c r="M257" s="7">
+        <v>12061</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11196,20 +11212,20 @@
       <c r="D258" s="4">
         <v>69</v>
       </c>
-      <c r="E258" s="4">
-        <v>2.847</v>
+      <c r="E258" s="8">
+        <v>2847</v>
       </c>
       <c r="F258" s="4">
         <v>342</v>
       </c>
-      <c r="G258" s="4">
-        <v>1.129</v>
-      </c>
-      <c r="H258" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="I258" s="4">
-        <v>1.825</v>
+      <c r="G258" s="8">
+        <v>1129</v>
+      </c>
+      <c r="H258" s="8">
+        <v>1950</v>
+      </c>
+      <c r="I258" s="8">
+        <v>1825</v>
       </c>
       <c r="J258" s="4">
         <v>114</v>
@@ -11220,8 +11236,8 @@
       <c r="L258" s="4">
         <v>219</v>
       </c>
-      <c r="M258" s="5">
-        <v>8.5980000000000008</v>
+      <c r="M258" s="7">
+        <v>8598</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11235,8 +11251,8 @@
       <c r="D259" s="4">
         <v>384</v>
       </c>
-      <c r="E259" s="4">
-        <v>5.4169999999999998</v>
+      <c r="E259" s="8">
+        <v>5417</v>
       </c>
       <c r="F259" s="4">
         <v>212</v>
@@ -11244,11 +11260,11 @@
       <c r="G259" s="4">
         <v>730</v>
       </c>
-      <c r="H259" s="4">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="I259" s="4">
-        <v>1.113</v>
+      <c r="H259" s="8">
+        <v>1207</v>
+      </c>
+      <c r="I259" s="8">
+        <v>1113</v>
       </c>
       <c r="J259" s="4">
         <v>44</v>
@@ -11259,8 +11275,8 @@
       <c r="L259" s="4">
         <v>237</v>
       </c>
-      <c r="M259" s="5">
-        <v>9.7720000000000002</v>
+      <c r="M259" s="7">
+        <v>9772</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11276,8 +11292,8 @@
       <c r="D260" s="4">
         <v>66</v>
       </c>
-      <c r="E260" s="4">
-        <v>2.5379999999999998</v>
+      <c r="E260" s="8">
+        <v>2538</v>
       </c>
       <c r="F260" s="4">
         <v>108</v>
@@ -11285,11 +11301,11 @@
       <c r="G260" s="4">
         <v>675</v>
       </c>
-      <c r="H260" s="4">
-        <v>1.089</v>
-      </c>
-      <c r="I260" s="4">
-        <v>1.119</v>
+      <c r="H260" s="8">
+        <v>1089</v>
+      </c>
+      <c r="I260" s="8">
+        <v>1119</v>
       </c>
       <c r="J260" s="4">
         <v>76</v>
@@ -11300,8 +11316,8 @@
       <c r="L260" s="4">
         <v>162</v>
       </c>
-      <c r="M260" s="5">
-        <v>5.9509999999999996</v>
+      <c r="M260" s="7">
+        <v>5951</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11315,8 +11331,8 @@
       <c r="D261" s="4">
         <v>510</v>
       </c>
-      <c r="E261" s="4">
-        <v>4.2290000000000001</v>
+      <c r="E261" s="8">
+        <v>4229</v>
       </c>
       <c r="F261" s="4">
         <v>62</v>
@@ -11339,8 +11355,8 @@
       <c r="L261" s="4">
         <v>193</v>
       </c>
-      <c r="M261" s="5">
-        <v>7.3520000000000003</v>
+      <c r="M261" s="7">
+        <v>7352</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11356,8 +11372,8 @@
       <c r="D262" s="4">
         <v>245</v>
       </c>
-      <c r="E262" s="4">
-        <v>3.2429999999999999</v>
+      <c r="E262" s="8">
+        <v>3243</v>
       </c>
       <c r="F262" s="4">
         <v>49</v>
@@ -11365,11 +11381,11 @@
       <c r="G262" s="4">
         <v>713</v>
       </c>
-      <c r="H262" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="I262" s="4">
-        <v>1.0940000000000001</v>
+      <c r="H262" s="8">
+        <v>1060</v>
+      </c>
+      <c r="I262" s="8">
+        <v>1094</v>
       </c>
       <c r="J262" s="4">
         <v>43</v>
@@ -11380,8 +11396,8 @@
       <c r="L262" s="4">
         <v>156</v>
       </c>
-      <c r="M262" s="5">
-        <v>6.81</v>
+      <c r="M262" s="7">
+        <v>6810</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11389,14 +11405,14 @@
       <c r="B263" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="4">
-        <v>1.59</v>
-      </c>
-      <c r="D263" s="4">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="E263" s="4">
-        <v>5.5369999999999999</v>
+      <c r="C263" s="8">
+        <v>1590</v>
+      </c>
+      <c r="D263" s="8">
+        <v>1249</v>
+      </c>
+      <c r="E263" s="8">
+        <v>5537</v>
       </c>
       <c r="F263" s="4">
         <v>24</v>
@@ -11419,8 +11435,8 @@
       <c r="L263" s="4">
         <v>201</v>
       </c>
-      <c r="M263" s="5">
-        <v>10.198</v>
+      <c r="M263" s="7">
+        <v>10198</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11428,45 +11444,45 @@
         <v>12</v>
       </c>
       <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>3.589</v>
-      </c>
-      <c r="D264" s="5">
-        <v>4.0540000000000003</v>
-      </c>
-      <c r="E264" s="5">
-        <v>53.331000000000003</v>
-      </c>
-      <c r="F264" s="5">
-        <v>20.855</v>
-      </c>
-      <c r="G264" s="5">
-        <v>35.420999999999999</v>
-      </c>
-      <c r="H264" s="5">
-        <v>102.09699999999999</v>
-      </c>
-      <c r="I264" s="5">
-        <v>79.096000000000004</v>
-      </c>
-      <c r="J264" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="K264" s="5">
-        <v>2.3029999999999999</v>
-      </c>
-      <c r="L264" s="5">
-        <v>4.4080000000000004</v>
-      </c>
-      <c r="M264" s="5">
-        <v>315.45400000000001</v>
+      <c r="C264" s="7">
+        <v>3589</v>
+      </c>
+      <c r="D264" s="7">
+        <v>4054</v>
+      </c>
+      <c r="E264" s="7">
+        <v>53331</v>
+      </c>
+      <c r="F264" s="7">
+        <v>20855</v>
+      </c>
+      <c r="G264" s="7">
+        <v>35421</v>
+      </c>
+      <c r="H264" s="7">
+        <v>102097</v>
+      </c>
+      <c r="I264" s="7">
+        <v>79096</v>
+      </c>
+      <c r="J264" s="7">
+        <v>10300</v>
+      </c>
+      <c r="K264" s="7">
+        <v>2303</v>
+      </c>
+      <c r="L264" s="7">
+        <v>4408</v>
+      </c>
+      <c r="M264" s="7">
+        <v>315454</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -12472,8 +12488,8 @@
       <c r="D290" s="5">
         <v>196</v>
       </c>
-      <c r="E290" s="5">
-        <v>1.4750000000000001</v>
+      <c r="E290" s="7">
+        <v>1475</v>
       </c>
       <c r="F290" s="5">
         <v>338</v>
@@ -12496,15 +12512,15 @@
       <c r="L290" s="5">
         <v>16</v>
       </c>
-      <c r="M290" s="5">
-        <v>3.8940000000000001</v>
+      <c r="M290" s="7">
+        <v>3894</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -13510,17 +13526,17 @@
       <c r="D316" s="5">
         <v>327</v>
       </c>
-      <c r="E316" s="5">
-        <v>4.351</v>
+      <c r="E316" s="7">
+        <v>4351</v>
       </c>
       <c r="F316" s="5">
         <v>875</v>
       </c>
-      <c r="G316" s="5">
-        <v>1.278</v>
-      </c>
-      <c r="H316" s="5">
-        <v>2.58</v>
+      <c r="G316" s="7">
+        <v>1278</v>
+      </c>
+      <c r="H316" s="7">
+        <v>2580</v>
       </c>
       <c r="I316" s="5">
         <v>889</v>
@@ -13534,15 +13550,15 @@
       <c r="L316" s="5">
         <v>45</v>
       </c>
-      <c r="M316" s="5">
-        <v>10.739000000000001</v>
+      <c r="M316" s="7">
+        <v>10739</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -14533,8 +14549,8 @@
       <c r="L341" s="4">
         <v>12</v>
       </c>
-      <c r="M341" s="5">
-        <v>1.111</v>
+      <c r="M341" s="7">
+        <v>1111</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -14548,20 +14564,20 @@
       <c r="D342" s="5">
         <v>479</v>
       </c>
-      <c r="E342" s="5">
-        <v>6.1689999999999996</v>
-      </c>
-      <c r="F342" s="5">
-        <v>1.129</v>
-      </c>
-      <c r="G342" s="5">
-        <v>2.024</v>
-      </c>
-      <c r="H342" s="5">
-        <v>3.8180000000000001</v>
-      </c>
-      <c r="I342" s="5">
-        <v>1.8340000000000001</v>
+      <c r="E342" s="7">
+        <v>6169</v>
+      </c>
+      <c r="F342" s="7">
+        <v>1129</v>
+      </c>
+      <c r="G342" s="7">
+        <v>2024</v>
+      </c>
+      <c r="H342" s="7">
+        <v>3818</v>
+      </c>
+      <c r="I342" s="7">
+        <v>1834</v>
       </c>
       <c r="J342" s="5">
         <v>190</v>
@@ -14572,15 +14588,15 @@
       <c r="L342" s="5">
         <v>146</v>
       </c>
-      <c r="M342" s="5">
-        <v>16.22</v>
+      <c r="M342" s="7">
+        <v>16220</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="11"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14634,14 +14650,14 @@
       <c r="F344" s="4">
         <v>4</v>
       </c>
-      <c r="G344" s="4">
-        <v>2.7229999999999999</v>
-      </c>
-      <c r="H344" s="4">
-        <v>13.888999999999999</v>
-      </c>
-      <c r="I344" s="4">
-        <v>2.9769999999999999</v>
+      <c r="G344" s="8">
+        <v>2723</v>
+      </c>
+      <c r="H344" s="8">
+        <v>13889</v>
+      </c>
+      <c r="I344" s="8">
+        <v>2977</v>
       </c>
       <c r="J344" s="4">
         <v>28</v>
@@ -14652,8 +14668,8 @@
       <c r="L344" s="4">
         <v>157</v>
       </c>
-      <c r="M344" s="5">
-        <v>19.850999999999999</v>
+      <c r="M344" s="7">
+        <v>19851</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14673,14 +14689,14 @@
       <c r="F345" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G345" s="4">
-        <v>2.1859999999999999</v>
-      </c>
-      <c r="H345" s="4">
-        <v>11.81</v>
-      </c>
-      <c r="I345" s="4">
-        <v>4.0709999999999997</v>
+      <c r="G345" s="8">
+        <v>2186</v>
+      </c>
+      <c r="H345" s="8">
+        <v>11810</v>
+      </c>
+      <c r="I345" s="8">
+        <v>4071</v>
       </c>
       <c r="J345" s="4">
         <v>46</v>
@@ -14691,8 +14707,8 @@
       <c r="L345" s="4">
         <v>88</v>
       </c>
-      <c r="M345" s="5">
-        <v>18.289000000000001</v>
+      <c r="M345" s="7">
+        <v>18289</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14714,14 +14730,14 @@
       <c r="F346" s="4">
         <v>40</v>
       </c>
-      <c r="G346" s="4">
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="H346" s="4">
-        <v>6.2290000000000001</v>
-      </c>
-      <c r="I346" s="4">
-        <v>6.7249999999999996</v>
+      <c r="G346" s="8">
+        <v>1822</v>
+      </c>
+      <c r="H346" s="8">
+        <v>6229</v>
+      </c>
+      <c r="I346" s="8">
+        <v>6725</v>
       </c>
       <c r="J346" s="4">
         <v>503</v>
@@ -14732,8 +14748,8 @@
       <c r="L346" s="4">
         <v>110</v>
       </c>
-      <c r="M346" s="5">
-        <v>15.541</v>
+      <c r="M346" s="7">
+        <v>15541</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14753,14 +14769,14 @@
       <c r="F347" s="4">
         <v>73</v>
       </c>
-      <c r="G347" s="4">
-        <v>1.6240000000000001</v>
-      </c>
-      <c r="H347" s="4">
-        <v>3.54</v>
-      </c>
-      <c r="I347" s="4">
-        <v>7.7779999999999996</v>
+      <c r="G347" s="8">
+        <v>1624</v>
+      </c>
+      <c r="H347" s="8">
+        <v>3540</v>
+      </c>
+      <c r="I347" s="8">
+        <v>7778</v>
       </c>
       <c r="J347" s="4">
         <v>677</v>
@@ -14771,8 +14787,8 @@
       <c r="L347" s="4">
         <v>78</v>
       </c>
-      <c r="M347" s="5">
-        <v>14.061999999999999</v>
+      <c r="M347" s="7">
+        <v>14062</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14797,11 +14813,11 @@
       <c r="G348" s="4">
         <v>927</v>
       </c>
-      <c r="H348" s="4">
-        <v>5.1180000000000003</v>
-      </c>
-      <c r="I348" s="4">
-        <v>6.3620000000000001</v>
+      <c r="H348" s="8">
+        <v>5118</v>
+      </c>
+      <c r="I348" s="8">
+        <v>6362</v>
       </c>
       <c r="J348" s="4">
         <v>845</v>
@@ -14812,8 +14828,8 @@
       <c r="L348" s="4">
         <v>106</v>
       </c>
-      <c r="M348" s="5">
-        <v>14.563000000000001</v>
+      <c r="M348" s="7">
+        <v>14563</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14830,17 +14846,17 @@
       <c r="E349" s="4">
         <v>189</v>
       </c>
-      <c r="F349" s="4">
-        <v>1.2210000000000001</v>
+      <c r="F349" s="8">
+        <v>1221</v>
       </c>
       <c r="G349" s="4">
         <v>793</v>
       </c>
-      <c r="H349" s="4">
-        <v>3.6659999999999999</v>
-      </c>
-      <c r="I349" s="4">
-        <v>6.6230000000000002</v>
+      <c r="H349" s="8">
+        <v>3666</v>
+      </c>
+      <c r="I349" s="8">
+        <v>6623</v>
       </c>
       <c r="J349" s="4">
         <v>884</v>
@@ -14851,8 +14867,8 @@
       <c r="L349" s="4">
         <v>106</v>
       </c>
-      <c r="M349" s="5">
-        <v>13.8</v>
+      <c r="M349" s="7">
+        <v>13800</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14871,17 +14887,17 @@
       <c r="E350" s="4">
         <v>394</v>
       </c>
-      <c r="F350" s="4">
-        <v>1.1459999999999999</v>
+      <c r="F350" s="8">
+        <v>1146</v>
       </c>
       <c r="G350" s="4">
         <v>781</v>
       </c>
-      <c r="H350" s="4">
-        <v>5.84</v>
-      </c>
-      <c r="I350" s="4">
-        <v>5.2080000000000002</v>
+      <c r="H350" s="8">
+        <v>5840</v>
+      </c>
+      <c r="I350" s="8">
+        <v>5208</v>
       </c>
       <c r="J350" s="4">
         <v>837</v>
@@ -14892,8 +14908,8 @@
       <c r="L350" s="4">
         <v>104</v>
       </c>
-      <c r="M350" s="5">
-        <v>14.536</v>
+      <c r="M350" s="7">
+        <v>14536</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14907,20 +14923,20 @@
       <c r="D351" s="4">
         <v>108</v>
       </c>
-      <c r="E351" s="4">
-        <v>1.181</v>
-      </c>
-      <c r="F351" s="4">
-        <v>1.22</v>
-      </c>
-      <c r="G351" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="H351" s="4">
-        <v>4.3419999999999996</v>
-      </c>
-      <c r="I351" s="4">
-        <v>4.9829999999999997</v>
+      <c r="E351" s="8">
+        <v>1181</v>
+      </c>
+      <c r="F351" s="8">
+        <v>1220</v>
+      </c>
+      <c r="G351" s="8">
+        <v>1016</v>
+      </c>
+      <c r="H351" s="8">
+        <v>4342</v>
+      </c>
+      <c r="I351" s="8">
+        <v>4983</v>
       </c>
       <c r="J351" s="4">
         <v>869</v>
@@ -14931,8 +14947,8 @@
       <c r="L351" s="4">
         <v>117</v>
       </c>
-      <c r="M351" s="5">
-        <v>14.105</v>
+      <c r="M351" s="7">
+        <v>14105</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14951,17 +14967,17 @@
       <c r="E352" s="4">
         <v>661</v>
       </c>
-      <c r="F352" s="4">
-        <v>1.121</v>
-      </c>
-      <c r="G352" s="4">
-        <v>1.696</v>
-      </c>
-      <c r="H352" s="4">
-        <v>6.0289999999999999</v>
-      </c>
-      <c r="I352" s="4">
-        <v>4.0380000000000003</v>
+      <c r="F352" s="8">
+        <v>1121</v>
+      </c>
+      <c r="G352" s="8">
+        <v>1696</v>
+      </c>
+      <c r="H352" s="8">
+        <v>6029</v>
+      </c>
+      <c r="I352" s="8">
+        <v>4038</v>
       </c>
       <c r="J352" s="4">
         <v>747</v>
@@ -14972,8 +14988,8 @@
       <c r="L352" s="4">
         <v>122</v>
       </c>
-      <c r="M352" s="5">
-        <v>14.675000000000001</v>
+      <c r="M352" s="7">
+        <v>14675</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -14987,20 +15003,20 @@
       <c r="D353" s="4">
         <v>66</v>
       </c>
-      <c r="E353" s="4">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="F353" s="4">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="G353" s="4">
-        <v>1.907</v>
-      </c>
-      <c r="H353" s="4">
-        <v>4.4969999999999999</v>
-      </c>
-      <c r="I353" s="4">
-        <v>3.847</v>
+      <c r="E353" s="8">
+        <v>2107</v>
+      </c>
+      <c r="F353" s="8">
+        <v>1261</v>
+      </c>
+      <c r="G353" s="8">
+        <v>1907</v>
+      </c>
+      <c r="H353" s="8">
+        <v>4497</v>
+      </c>
+      <c r="I353" s="8">
+        <v>3847</v>
       </c>
       <c r="J353" s="4">
         <v>820</v>
@@ -15011,8 +15027,8 @@
       <c r="L353" s="4">
         <v>98</v>
       </c>
-      <c r="M353" s="5">
-        <v>14.88</v>
+      <c r="M353" s="7">
+        <v>14880</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15031,17 +15047,17 @@
       <c r="E354" s="4">
         <v>801</v>
       </c>
-      <c r="F354" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="G354" s="4">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="H354" s="4">
-        <v>5.0839999999999996</v>
-      </c>
-      <c r="I354" s="4">
-        <v>3.4470000000000001</v>
+      <c r="F354" s="8">
+        <v>1330</v>
+      </c>
+      <c r="G354" s="8">
+        <v>1729</v>
+      </c>
+      <c r="H354" s="8">
+        <v>5084</v>
+      </c>
+      <c r="I354" s="8">
+        <v>3447</v>
       </c>
       <c r="J354" s="4">
         <v>550</v>
@@ -15052,8 +15068,8 @@
       <c r="L354" s="4">
         <v>115</v>
       </c>
-      <c r="M354" s="5">
-        <v>13.353</v>
+      <c r="M354" s="7">
+        <v>13353</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15067,20 +15083,20 @@
       <c r="D355" s="4">
         <v>77</v>
       </c>
-      <c r="E355" s="4">
-        <v>2.7160000000000002</v>
-      </c>
-      <c r="F355" s="4">
-        <v>1.742</v>
-      </c>
-      <c r="G355" s="4">
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="H355" s="4">
-        <v>3.919</v>
-      </c>
-      <c r="I355" s="4">
-        <v>2.665</v>
+      <c r="E355" s="8">
+        <v>2716</v>
+      </c>
+      <c r="F355" s="8">
+        <v>1742</v>
+      </c>
+      <c r="G355" s="8">
+        <v>2072</v>
+      </c>
+      <c r="H355" s="8">
+        <v>3919</v>
+      </c>
+      <c r="I355" s="8">
+        <v>2665</v>
       </c>
       <c r="J355" s="4">
         <v>427</v>
@@ -15091,8 +15107,8 @@
       <c r="L355" s="4">
         <v>127</v>
       </c>
-      <c r="M355" s="5">
-        <v>14.05</v>
+      <c r="M355" s="7">
+        <v>14050</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15108,20 +15124,20 @@
       <c r="D356" s="4">
         <v>9</v>
       </c>
-      <c r="E356" s="4">
-        <v>1.036</v>
-      </c>
-      <c r="F356" s="4">
-        <v>1.5860000000000001</v>
-      </c>
-      <c r="G356" s="4">
-        <v>1.9890000000000001</v>
-      </c>
-      <c r="H356" s="4">
-        <v>4.032</v>
-      </c>
-      <c r="I356" s="4">
-        <v>2.6640000000000001</v>
+      <c r="E356" s="8">
+        <v>1036</v>
+      </c>
+      <c r="F356" s="8">
+        <v>1586</v>
+      </c>
+      <c r="G356" s="8">
+        <v>1989</v>
+      </c>
+      <c r="H356" s="8">
+        <v>4032</v>
+      </c>
+      <c r="I356" s="8">
+        <v>2664</v>
       </c>
       <c r="J356" s="4">
         <v>385</v>
@@ -15132,8 +15148,8 @@
       <c r="L356" s="4">
         <v>140</v>
       </c>
-      <c r="M356" s="5">
-        <v>12.082000000000001</v>
+      <c r="M356" s="7">
+        <v>12082</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15147,20 +15163,20 @@
       <c r="D357" s="4">
         <v>101</v>
       </c>
-      <c r="E357" s="4">
-        <v>3.5009999999999999</v>
-      </c>
-      <c r="F357" s="4">
-        <v>1.885</v>
-      </c>
-      <c r="G357" s="4">
-        <v>1.9790000000000001</v>
-      </c>
-      <c r="H357" s="4">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="I357" s="4">
-        <v>1.6459999999999999</v>
+      <c r="E357" s="8">
+        <v>3501</v>
+      </c>
+      <c r="F357" s="8">
+        <v>1885</v>
+      </c>
+      <c r="G357" s="8">
+        <v>1979</v>
+      </c>
+      <c r="H357" s="8">
+        <v>2909</v>
+      </c>
+      <c r="I357" s="8">
+        <v>1646</v>
       </c>
       <c r="J357" s="4">
         <v>238</v>
@@ -15171,8 +15187,8 @@
       <c r="L357" s="4">
         <v>147</v>
       </c>
-      <c r="M357" s="5">
-        <v>12.64</v>
+      <c r="M357" s="7">
+        <v>12640</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15188,20 +15204,20 @@
       <c r="D358" s="4">
         <v>18</v>
       </c>
-      <c r="E358" s="4">
-        <v>1.385</v>
-      </c>
-      <c r="F358" s="4">
-        <v>1.5509999999999999</v>
-      </c>
-      <c r="G358" s="4">
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="H358" s="4">
-        <v>3.1219999999999999</v>
-      </c>
-      <c r="I358" s="4">
-        <v>2.1019999999999999</v>
+      <c r="E358" s="8">
+        <v>1385</v>
+      </c>
+      <c r="F358" s="8">
+        <v>1551</v>
+      </c>
+      <c r="G358" s="8">
+        <v>2075</v>
+      </c>
+      <c r="H358" s="8">
+        <v>3122</v>
+      </c>
+      <c r="I358" s="8">
+        <v>2102</v>
       </c>
       <c r="J358" s="4">
         <v>265</v>
@@ -15212,8 +15228,8 @@
       <c r="L358" s="4">
         <v>137</v>
       </c>
-      <c r="M358" s="5">
-        <v>10.827</v>
+      <c r="M358" s="7">
+        <v>10827</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15227,20 +15243,20 @@
       <c r="D359" s="4">
         <v>163</v>
       </c>
-      <c r="E359" s="4">
-        <v>4.7210000000000001</v>
-      </c>
-      <c r="F359" s="4">
-        <v>1.413</v>
-      </c>
-      <c r="G359" s="4">
-        <v>1.627</v>
-      </c>
-      <c r="H359" s="4">
-        <v>2.157</v>
-      </c>
-      <c r="I359" s="4">
-        <v>1.028</v>
+      <c r="E359" s="8">
+        <v>4721</v>
+      </c>
+      <c r="F359" s="8">
+        <v>1413</v>
+      </c>
+      <c r="G359" s="8">
+        <v>1627</v>
+      </c>
+      <c r="H359" s="8">
+        <v>2157</v>
+      </c>
+      <c r="I359" s="8">
+        <v>1028</v>
       </c>
       <c r="J359" s="4">
         <v>147</v>
@@ -15251,8 +15267,8 @@
       <c r="L359" s="4">
         <v>159</v>
       </c>
-      <c r="M359" s="5">
-        <v>11.688000000000001</v>
+      <c r="M359" s="7">
+        <v>11688</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15268,20 +15284,20 @@
       <c r="D360" s="4">
         <v>39</v>
       </c>
-      <c r="E360" s="4">
-        <v>2.5190000000000001</v>
+      <c r="E360" s="8">
+        <v>2519</v>
       </c>
       <c r="F360" s="4">
         <v>951</v>
       </c>
-      <c r="G360" s="4">
-        <v>1.649</v>
-      </c>
-      <c r="H360" s="4">
-        <v>2.85</v>
-      </c>
-      <c r="I360" s="4">
-        <v>1.343</v>
+      <c r="G360" s="8">
+        <v>1649</v>
+      </c>
+      <c r="H360" s="8">
+        <v>2850</v>
+      </c>
+      <c r="I360" s="8">
+        <v>1343</v>
       </c>
       <c r="J360" s="4">
         <v>147</v>
@@ -15292,8 +15308,8 @@
       <c r="L360" s="4">
         <v>147</v>
       </c>
-      <c r="M360" s="5">
-        <v>9.7479999999999993</v>
+      <c r="M360" s="7">
+        <v>9748</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15307,8 +15323,8 @@
       <c r="D361" s="4">
         <v>224</v>
       </c>
-      <c r="E361" s="4">
-        <v>5.7460000000000004</v>
+      <c r="E361" s="8">
+        <v>5746</v>
       </c>
       <c r="F361" s="4">
         <v>727</v>
@@ -15316,8 +15332,8 @@
       <c r="G361" s="4">
         <v>984</v>
       </c>
-      <c r="H361" s="4">
-        <v>1.61</v>
+      <c r="H361" s="8">
+        <v>1610</v>
       </c>
       <c r="I361" s="4">
         <v>668</v>
@@ -15331,8 +15347,8 @@
       <c r="L361" s="4">
         <v>160</v>
       </c>
-      <c r="M361" s="5">
-        <v>10.491</v>
+      <c r="M361" s="7">
+        <v>10491</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15348,20 +15364,20 @@
       <c r="D362" s="4">
         <v>49</v>
       </c>
-      <c r="E362" s="4">
-        <v>2.8570000000000002</v>
+      <c r="E362" s="8">
+        <v>2857</v>
       </c>
       <c r="F362" s="4">
         <v>352</v>
       </c>
-      <c r="G362" s="4">
-        <v>1.115</v>
-      </c>
-      <c r="H362" s="4">
-        <v>1.655</v>
-      </c>
-      <c r="I362" s="4">
-        <v>1.038</v>
+      <c r="G362" s="8">
+        <v>1115</v>
+      </c>
+      <c r="H362" s="8">
+        <v>1655</v>
+      </c>
+      <c r="I362" s="8">
+        <v>1038</v>
       </c>
       <c r="J362" s="4">
         <v>74</v>
@@ -15372,8 +15388,8 @@
       <c r="L362" s="4">
         <v>126</v>
       </c>
-      <c r="M362" s="5">
-        <v>7.3520000000000003</v>
+      <c r="M362" s="7">
+        <v>7352</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15387,8 +15403,8 @@
       <c r="D363" s="4">
         <v>374</v>
       </c>
-      <c r="E363" s="4">
-        <v>5.1619999999999999</v>
+      <c r="E363" s="8">
+        <v>5162</v>
       </c>
       <c r="F363" s="4">
         <v>240</v>
@@ -15411,8 +15427,8 @@
       <c r="L363" s="4">
         <v>124</v>
       </c>
-      <c r="M363" s="5">
-        <v>8.1280000000000001</v>
+      <c r="M363" s="7">
+        <v>8128</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15428,8 +15444,8 @@
       <c r="D364" s="4">
         <v>66</v>
       </c>
-      <c r="E364" s="4">
-        <v>2.847</v>
+      <c r="E364" s="8">
+        <v>2847</v>
       </c>
       <c r="F364" s="4">
         <v>128</v>
@@ -15452,8 +15468,8 @@
       <c r="L364" s="4">
         <v>102</v>
       </c>
-      <c r="M364" s="5">
-        <v>5.3</v>
+      <c r="M364" s="7">
+        <v>5300</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15467,8 +15483,8 @@
       <c r="D365" s="4">
         <v>455</v>
       </c>
-      <c r="E365" s="4">
-        <v>4.1929999999999996</v>
+      <c r="E365" s="8">
+        <v>4193</v>
       </c>
       <c r="F365" s="4">
         <v>57</v>
@@ -15491,8 +15507,8 @@
       <c r="L365" s="4">
         <v>111</v>
       </c>
-      <c r="M365" s="5">
-        <v>6.2439999999999998</v>
+      <c r="M365" s="7">
+        <v>6244</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15508,8 +15524,8 @@
       <c r="D366" s="4">
         <v>268</v>
       </c>
-      <c r="E366" s="4">
-        <v>3.7149999999999999</v>
+      <c r="E366" s="8">
+        <v>3715</v>
       </c>
       <c r="F366" s="4">
         <v>35</v>
@@ -15532,8 +15548,8 @@
       <c r="L366" s="4">
         <v>107</v>
       </c>
-      <c r="M366" s="5">
-        <v>5.9850000000000003</v>
+      <c r="M366" s="7">
+        <v>5985</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15541,14 +15557,14 @@
       <c r="B367" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C367" s="4">
-        <v>1.56</v>
-      </c>
-      <c r="D367" s="4">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="E367" s="4">
-        <v>5.1459999999999999</v>
+      <c r="C367" s="8">
+        <v>1560</v>
+      </c>
+      <c r="D367" s="8">
+        <v>1386</v>
+      </c>
+      <c r="E367" s="8">
+        <v>5146</v>
       </c>
       <c r="F367" s="4">
         <v>18</v>
@@ -15571,8 +15587,8 @@
       <c r="L367" s="4">
         <v>158</v>
       </c>
-      <c r="M367" s="5">
-        <v>9.0410000000000004</v>
+      <c r="M367" s="7">
+        <v>9041</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -15580,38 +15596,48 @@
         <v>12</v>
       </c>
       <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>3.3570000000000002</v>
-      </c>
-      <c r="D368" s="5">
-        <v>3.9580000000000002</v>
-      </c>
-      <c r="E368" s="5">
-        <v>51.243000000000002</v>
-      </c>
-      <c r="F368" s="5">
-        <v>19.077999999999999</v>
-      </c>
-      <c r="G368" s="5">
-        <v>33.35</v>
-      </c>
-      <c r="H368" s="5">
-        <v>95.007999999999996</v>
-      </c>
-      <c r="I368" s="5">
-        <v>71.108999999999995</v>
-      </c>
-      <c r="J368" s="5">
-        <v>8.6590000000000007</v>
-      </c>
-      <c r="K368" s="5">
-        <v>2.5230000000000001</v>
-      </c>
-      <c r="L368" s="5">
-        <v>2.9460000000000002</v>
-      </c>
-      <c r="M368" s="5">
-        <v>291.23099999999999</v>
+      <c r="C368" s="7">
+        <v>3357</v>
+      </c>
+      <c r="D368" s="7">
+        <v>3958</v>
+      </c>
+      <c r="E368" s="7">
+        <v>51243</v>
+      </c>
+      <c r="F368" s="7">
+        <v>19078</v>
+      </c>
+      <c r="G368" s="7">
+        <v>33350</v>
+      </c>
+      <c r="H368" s="7">
+        <v>95008</v>
+      </c>
+      <c r="I368" s="7">
+        <v>71109</v>
+      </c>
+      <c r="J368" s="7">
+        <v>8659</v>
+      </c>
+      <c r="K368" s="7">
+        <v>2523</v>
+      </c>
+      <c r="L368" s="7">
+        <v>2946</v>
+      </c>
+      <c r="M368" s="7">
+        <v>291231</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A369" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A370" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
